--- a/data/trans_dic/P50_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P50_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con cierta dificultad o más para llegar a fin de mes</t>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,26%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>20,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,8%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,66%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>25,32%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>15,54%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,79; 32,09</t>
+          <t>8,25; 39,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 17,61</t>
+          <t>2,92; 22,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 20,83</t>
+          <t>7,54; 38,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 26,83</t>
+          <t>8,39; 40,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,08; 44,5</t>
+          <t>12,95; 45,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,94; 37,99</t>
+          <t>15,54; 42,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,1; 36,57</t>
+          <t>9,14; 35,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,58; 32,41</t>
+          <t>11,95; 34,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,82; 34,18</t>
+          <t>8,65; 31,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 25,19</t>
+          <t>10,07; 33,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,0; 26,46</t>
+          <t>16,65; 37,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,82; 25,03</t>
+          <t>8,01; 26,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>11,95; 31,93</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,76; 31,12</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>15,26; 34,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>42,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>50,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>17,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>24,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,12%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>40,67%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>32,5%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,49; 64,34</t>
+          <t>30,24; 73,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,56; 53,77</t>
+          <t>21,27; 67,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 37,42</t>
+          <t>8,68; 34,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,03; 62,36</t>
+          <t>27,68; 76,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,35; 43,94</t>
+          <t>5,81; 31,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,69; 40,32</t>
+          <t>20,04; 43,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,21; 44,7</t>
+          <t>13,51; 36,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 37,87</t>
+          <t>14,45; 38,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,91; 49,83</t>
+          <t>12,64; 37,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>24,44; 43,51</t>
+          <t>23,67; 50,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,14; 37,12</t>
+          <t>27,75; 54,43</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 48,91</t>
+          <t>21,7; 51,05</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14,58; 31,29</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25,24; 56,0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>15,03; 36,87</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>27,78%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,75%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>21,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>21,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>21,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>28,48%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>20,46%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>21,54%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>30,77%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,16; 37,42</t>
+          <t>19,58; 41,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 36,85</t>
+          <t>16,67; 41,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,64; 36,45</t>
+          <t>12,16; 34,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 39,57</t>
+          <t>11,03; 35,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 30,26</t>
+          <t>19,19; 43,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 25,12</t>
+          <t>14,6; 30,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,74; 39,2</t>
+          <t>10,08; 23,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,76; 30,87</t>
+          <t>19,33; 35,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 31,2</t>
+          <t>14,25; 30,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,09</t>
+          <t>21,35; 40,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 34,74</t>
+          <t>18,09; 32,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,33; 32,4</t>
+          <t>14,51; 27,37</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18,81; 32,6</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,17; 28,3</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>23,75; 38,69</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>31,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>22,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>24,44%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,56%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,34%</t>
+          <t>30,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>33,01%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26,19%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>28,9%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>31,24%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,21; 38,3</t>
+          <t>21,17; 41,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,76; 34,0</t>
+          <t>15,05; 32,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,93; 34,24</t>
+          <t>12,62; 30,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,66; 34,97</t>
+          <t>15,62; 35,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,38; 48,57</t>
+          <t>14,54; 35,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,27; 40,43</t>
+          <t>29,89; 49,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,99; 44,11</t>
+          <t>24,18; 42,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,89; 43,66</t>
+          <t>21,98; 40,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>30,73; 41,52</t>
+          <t>24,02; 42,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,17; 36,67</t>
+          <t>29,44; 47,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 37,17</t>
+          <t>28,66; 42,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,03; 37,62</t>
+          <t>22,35; 35,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,4; 33,0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>22,11; 35,49</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>25,15; 38,84</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>24,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>42,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>42,73%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>32,23%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>39,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,05; 37,54</t>
+          <t>17,74; 40,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,17; 35,62</t>
+          <t>15,32; 35,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,13; 35,8</t>
+          <t>13,71; 35,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,35; 37,35</t>
+          <t>16,78; 38,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,82; 45,64</t>
+          <t>24,67; 48,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,84; 37,68</t>
+          <t>29,59; 57,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,88; 44,29</t>
+          <t>22,35; 47,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,14; 42,29</t>
+          <t>29,35; 56,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>26,48; 39,01</t>
+          <t>26,14; 53,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,54; 35,07</t>
+          <t>29,73; 57,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,08; 36,32</t>
+          <t>25,59; 43,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,77; 36,23</t>
+          <t>20,37; 37,8</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23,16; 40,46</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>24,17; 41,48</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>30,45; 48,51</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>14,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>31,2%</t>
+          <t>37,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>22,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>36,25%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>39,7%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>21,93%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>26,81%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>35,35%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,46; 41,38</t>
+          <t>16,17; 43,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,9; 30,55</t>
+          <t>5,27; 29,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,85; 32,61</t>
+          <t>5,13; 26,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,52; 36,58</t>
+          <t>9,5; 36,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,97; 53,57</t>
+          <t>16,48; 45,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,59; 42,0</t>
+          <t>23,87; 54,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,32; 38,38</t>
+          <t>14,14; 44,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,1; 39,62</t>
+          <t>10,33; 41,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,88; 44,73</t>
+          <t>15,74; 47,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,08; 34,84</t>
+          <t>22,65; 63,26</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 31,79</t>
+          <t>23,61; 44,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,86; 35,34</t>
+          <t>13,29; 32,17</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>10,38; 28,48</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>17,52; 38,82</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>24,29; 50,94</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,77%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,01%</t>
+          <t>24,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>20,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,44%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>26,35%</t>
+          <t>35,01%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>24,9%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,26; 35,87</t>
+          <t>27,22; 40,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,74; 29,45</t>
+          <t>19,64; 32,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,08; 26,36</t>
+          <t>15,93; 25,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,45; 32,63</t>
+          <t>22,49; 38,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,69; 38,18</t>
+          <t>20,48; 32,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,86; 31,13</t>
+          <t>27,51; 36,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,91; 35,54</t>
+          <t>20,83; 29,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>24,25; 31,9</t>
+          <t>23,86; 32,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>29,7; 35,35</t>
+          <t>22,89; 31,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>23,32; 29,26</t>
+          <t>29,63; 40,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,86; 30,16</t>
+          <t>28,73; 36,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,46; 30,88</t>
+          <t>21,8; 29,48</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>20,75; 27,58</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>23,9; 32,25</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>26,8; 35,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cierta dificultad o más para llegar a fin de mes (tasa de respuesta: 99,26%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18203</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10191</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>19522</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>26322</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35072</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32667</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>26795</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25872</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22281</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>31735</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50870</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>36986</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>45393</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>48603</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>66807</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6874; 33309</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3129; 24373</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7706; 39148</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10701; 52025</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17371; 61580</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18270; 49515</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11983; 46294</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14349; 41892</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10604; 38786</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14651; 48892</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>33454; 75555</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19080; 63206</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26574; 70979</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>29405; 77827</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>42679; 97558</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>69623</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>68363</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27387</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78442</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40027</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>40241</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>38073</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>30890</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>30218</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59727</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>109864</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>106435</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>58277</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>108661</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>99754</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>41381; 99914</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34543; 109019</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12445; 49293</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42704; 117630</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13226; 72359</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>26710; 57520</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22313; 59522</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17956; 48377</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15968; 46780</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38430; 82567</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>74959; 147038</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>71078; 167186</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>39032; 83757</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>70830; 157117</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>58627; 143806</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41334</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>43859</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29169</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29711</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>56182</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>45527</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>43331</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>56010</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43116</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71155</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86861</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>87191</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>85178</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>72826</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>127337</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27365; 58619</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>27008; 66461</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16341; 46013</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15180; 48635</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34598; 78775</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30808; 63411</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26619; 61909</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>40060; 74275</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28560; 61059</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>49873; 94737</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>63474; 112490</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>61828; 116629</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>64233; 111339</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>51276; 95671</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>98294; 160090</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50020</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>42171</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>33325</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>38184</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48401</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>74242</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>72280</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>57589</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>55786</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>80365</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>124262</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>114451</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>90914</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>93970</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>128766</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33600; 66545</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>28092; 61365</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20353; 49399</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24401; 54877</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29292; 71606</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>57182; 94026</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>52794; 92709</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40868; 75385</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>40590; 72153</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62051; 100948</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>100324; 148651</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>90517; 143062</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>70831; 114563</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>71884; 115416</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>103653; 160102</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>38599</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>38294</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>31203</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>34002</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55998</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43319</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40009</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>38958</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>34989</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>58559</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>81917</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>78303</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>70161</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>68991</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>114557</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>24639; 55891</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>24122; 55821</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18107; 47139</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20675; 47233</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>38152; 75001</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>30122; 58377</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>25965; 55031</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27008; 52149</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23752; 48149</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>40750; 78445</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>61588; 104623</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>55730; 103436</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>51899; 90680</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>51738; 88778</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>88811; 141519</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>26475</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16255</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10986</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>18728</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>39706</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38489</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>37885</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>22472</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33847</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>82368</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>64964</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>54140</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>33458</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>52575</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>122074</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>14591; 39646</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5759; 31744</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4350; 22832</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>8336; 31891</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>22710; 62449</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24483; 55538</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>19452; 60969</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>10413; 41659</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>17063; 51118</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>46997; 131255</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45525; 85797</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>32813; 79437</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>19270; 52863</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>34368; 76130</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>83881; 175895</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>244253</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>219133</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>151592</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>225390</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>275386</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>274485</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>258372</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>231791</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>220237</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>383909</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>518738</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>477505</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>383382</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>445627</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>659295</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>203572; 305903</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>173793; 286688</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>120750; 194177</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>176946; 305196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>212141; 339383</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>235892; 313190</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>215056; 303423</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>198148; 271781</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>187130; 260562</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>324920; 449159</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>461170; 587229</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>417985; 565249</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>329666; 438087</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>383431; 517318</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>571629; 752829</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>